--- a/Projects/Gene Regulation Network/Dataset/Exp4.xlsx
+++ b/Projects/Gene Regulation Network/Dataset/Exp4.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Masters in Computer and Information Science\CSMC\Projects\Gene Regulation Network\Dataset\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A5FF41-B7BC-4FCA-B79C-2C2F7B7BBCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp4" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="9">
   <si>
     <t>time (min)</t>
   </si>
@@ -48,11 +55,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -853,21 +860,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -883,7 +890,7 @@
     <col min="24" max="51" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1045,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1193,7 +1200,7 @@
         <v>27.366666670000001</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1348,7 +1355,7 @@
         <v>132.2366667</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1503,7 +1510,7 @@
         <v>20.954999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1658,7 +1665,7 @@
         <v>105.73833329999999</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1813,7 +1820,7 @@
         <v>52.326666670000002</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1968,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2123,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2278,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2307,7 +2314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>0</v>
       </c>
@@ -2336,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>6</v>
       </c>
@@ -2365,7 +2372,7 @@
         <v>12.293333329999999</v>
       </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>12</v>
       </c>
@@ -2394,7 +2401,7 @@
         <v>36.196666669999999</v>
       </c>
     </row>
-    <row r="17" spans="3:11">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>18</v>
       </c>
@@ -2423,7 +2430,7 @@
         <v>66.903333329999995</v>
       </c>
     </row>
-    <row r="18" spans="3:11">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>24</v>
       </c>
@@ -2452,7 +2459,7 @@
         <v>71.424999999999997</v>
       </c>
     </row>
-    <row r="19" spans="3:11">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>30</v>
       </c>
@@ -2481,7 +2488,7 @@
         <v>80.308333329999996</v>
       </c>
     </row>
-    <row r="20" spans="3:11">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>36</v>
       </c>
@@ -2510,7 +2517,7 @@
         <v>82.896666670000002</v>
       </c>
     </row>
-    <row r="21" spans="3:11">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <v>42</v>
       </c>
@@ -2539,7 +2546,7 @@
         <v>76.833333330000002</v>
       </c>
     </row>
-    <row r="22" spans="3:11">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <v>48</v>
       </c>
@@ -2568,7 +2575,7 @@
         <v>89.21166667</v>
       </c>
     </row>
-    <row r="23" spans="3:11">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <v>54</v>
       </c>
@@ -2597,7 +2604,7 @@
         <v>81.576666669999994</v>
       </c>
     </row>
-    <row r="24" spans="3:11">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <v>60</v>
       </c>
@@ -2626,7 +2633,7 @@
         <v>74.298333330000006</v>
       </c>
     </row>
-    <row r="25" spans="3:11">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
         <v>66</v>
       </c>
@@ -2655,7 +2662,7 @@
         <v>53.728333329999998</v>
       </c>
     </row>
-    <row r="26" spans="3:11">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <v>72</v>
       </c>
@@ -2684,7 +2691,7 @@
         <v>55.938333329999999</v>
       </c>
     </row>
-    <row r="27" spans="3:11">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
         <v>78</v>
       </c>
@@ -2713,7 +2720,7 @@
         <v>49.693333330000002</v>
       </c>
     </row>
-    <row r="28" spans="3:11">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
         <v>84</v>
       </c>
@@ -2742,7 +2749,7 @@
         <v>49.606666670000003</v>
       </c>
     </row>
-    <row r="29" spans="3:11">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <v>90</v>
       </c>
@@ -2771,7 +2778,7 @@
         <v>53.92</v>
       </c>
     </row>
-    <row r="30" spans="3:11">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
         <v>96</v>
       </c>
@@ -2800,7 +2807,7 @@
         <v>56.011666669999997</v>
       </c>
     </row>
-    <row r="31" spans="3:11">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
         <v>102</v>
       </c>
@@ -2829,7 +2836,7 @@
         <v>51.291666669999998</v>
       </c>
     </row>
-    <row r="32" spans="3:11">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
         <v>108</v>
       </c>
@@ -2858,7 +2865,7 @@
         <v>62.946666669999999</v>
       </c>
     </row>
-    <row r="33" spans="3:11">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
         <v>114</v>
       </c>
@@ -2887,7 +2894,7 @@
         <v>60.588333329999998</v>
       </c>
     </row>
-    <row r="34" spans="3:11">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
         <v>120</v>
       </c>
@@ -2916,7 +2923,7 @@
         <v>57.606666670000003</v>
       </c>
     </row>
-    <row r="35" spans="3:11">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <v>126</v>
       </c>
@@ -2945,7 +2952,7 @@
         <v>57.024999999999999</v>
       </c>
     </row>
-    <row r="36" spans="3:11">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <v>132</v>
       </c>
@@ -2974,7 +2981,7 @@
         <v>44.21833333</v>
       </c>
     </row>
-    <row r="37" spans="3:11">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <v>138</v>
       </c>
@@ -3003,7 +3010,7 @@
         <v>38.878333329999997</v>
       </c>
     </row>
-    <row r="38" spans="3:11">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" s="1">
         <v>144</v>
       </c>
@@ -3032,7 +3039,7 @@
         <v>41.058333330000004</v>
       </c>
     </row>
-    <row r="39" spans="3:11">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C39" s="1">
         <v>150</v>
       </c>
@@ -3061,7 +3068,7 @@
         <v>49.61</v>
       </c>
     </row>
-    <row r="40" spans="3:11">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C40" s="1">
         <v>156</v>
       </c>
@@ -3090,7 +3097,7 @@
         <v>46.35166667</v>
       </c>
     </row>
-    <row r="41" spans="3:11">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C41" s="1">
         <v>162</v>
       </c>
@@ -3119,7 +3126,7 @@
         <v>42.136666669999997</v>
       </c>
     </row>
-    <row r="42" spans="3:11">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C42" s="1">
         <v>168</v>
       </c>
@@ -3148,7 +3155,7 @@
         <v>38.503333329999997</v>
       </c>
     </row>
-    <row r="43" spans="3:11">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C43" s="1">
         <v>174</v>
       </c>
@@ -3177,7 +3184,7 @@
         <v>18.82833333</v>
       </c>
     </row>
-    <row r="44" spans="3:11">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C44" s="1">
         <v>180</v>
       </c>
@@ -3206,7 +3213,7 @@
         <v>15.355</v>
       </c>
     </row>
-    <row r="45" spans="3:11">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C45" s="1">
         <v>186</v>
       </c>
@@ -3235,7 +3242,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="46" spans="3:11">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C46" s="1">
         <v>192</v>
       </c>
@@ -3264,7 +3271,7 @@
         <v>14.94</v>
       </c>
     </row>
-    <row r="47" spans="3:11">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C47" s="1">
         <v>198</v>
       </c>
@@ -3293,7 +3300,7 @@
         <v>14.525</v>
       </c>
     </row>
-    <row r="48" spans="3:11">
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C48" s="1">
         <v>204</v>
       </c>
@@ -3322,7 +3329,7 @@
         <v>12.215</v>
       </c>
     </row>
-    <row r="49" spans="3:11">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C49" s="1">
         <v>210</v>
       </c>
@@ -3351,7 +3358,7 @@
         <v>13.23833333</v>
       </c>
     </row>
-    <row r="50" spans="3:11">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C50" s="1">
         <v>216</v>
       </c>
@@ -3380,7 +3387,7 @@
         <v>10.62166667</v>
       </c>
     </row>
-    <row r="51" spans="3:11">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C51" s="1">
         <v>222</v>
       </c>
@@ -3409,7 +3416,7 @@
         <v>5.9266666670000001</v>
       </c>
     </row>
-    <row r="52" spans="3:11">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C52" s="1">
         <v>228</v>
       </c>
@@ -3438,7 +3445,7 @@
         <v>12.38666667</v>
       </c>
     </row>
-    <row r="53" spans="3:11">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C53" s="1">
         <v>234</v>
       </c>
@@ -3467,7 +3474,7 @@
         <v>9.3149999999999995</v>
       </c>
     </row>
-    <row r="54" spans="3:11">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C54" s="1">
         <v>240</v>
       </c>
@@ -3496,7 +3503,7 @@
         <v>9.1866666670000008</v>
       </c>
     </row>
-    <row r="55" spans="3:11">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C55" s="1">
         <v>246</v>
       </c>
@@ -3525,7 +3532,7 @@
         <v>2.826666667</v>
       </c>
     </row>
-    <row r="56" spans="3:11">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C56" s="1">
         <v>252</v>
       </c>
@@ -3554,7 +3561,7 @@
         <v>8.9366666670000008</v>
       </c>
     </row>
-    <row r="57" spans="3:11">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C57" s="1">
         <v>258</v>
       </c>
@@ -3583,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:11">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C58" s="1">
         <v>264</v>
       </c>
@@ -3612,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:11">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C59" s="1">
         <v>270</v>
       </c>
@@ -3641,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:11">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C60" s="1">
         <v>276</v>
       </c>
@@ -3670,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:11">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C61" s="1">
         <v>282</v>
       </c>
@@ -3699,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:11">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C62" s="1">
         <v>288</v>
       </c>
@@ -3728,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:11">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C63" s="1">
         <v>294</v>
       </c>
@@ -3764,14 +3771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:AA53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:K53"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:K53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -3786,7 +3793,7 @@
     <col min="27" max="27" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:27">
+    <row r="2" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -3807,7 +3814,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="3:27">
+    <row r="3" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3843,7 +3850,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
     </row>
-    <row r="4" spans="3:27">
+    <row r="4" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>0</v>
       </c>
@@ -3879,7 +3886,7 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
     </row>
-    <row r="5" spans="3:27">
+    <row r="5" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>6</v>
       </c>
@@ -3915,7 +3922,7 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="3:27">
+    <row r="6" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>12</v>
       </c>
@@ -3951,7 +3958,7 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
     </row>
-    <row r="7" spans="3:27">
+    <row r="7" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>18</v>
       </c>
@@ -3987,7 +3994,7 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
     </row>
-    <row r="8" spans="3:27">
+    <row r="8" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>24</v>
       </c>
@@ -4023,7 +4030,7 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
     </row>
-    <row r="9" spans="3:27">
+    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>30</v>
       </c>
@@ -4059,7 +4066,7 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="3:27">
+    <row r="10" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>36</v>
       </c>
@@ -4095,7 +4102,7 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
     </row>
-    <row r="11" spans="3:27">
+    <row r="11" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>42</v>
       </c>
@@ -4124,7 +4131,7 @@
         <v>2.0330491765901199E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:27">
+    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>48</v>
       </c>
@@ -4153,7 +4160,7 @@
         <v>2.3605861883758499E-2</v>
       </c>
     </row>
-    <row r="13" spans="3:27">
+    <row r="13" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>54</v>
       </c>
@@ -4182,7 +4189,7 @@
         <v>2.1585601953527801E-2</v>
       </c>
     </row>
-    <row r="14" spans="3:27">
+    <row r="14" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>60</v>
       </c>
@@ -4211,7 +4218,7 @@
         <v>1.96597178401468E-2</v>
       </c>
     </row>
-    <row r="15" spans="3:27">
+    <row r="15" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>66</v>
       </c>
@@ -4240,7 +4247,7 @@
         <v>1.4216790955425799E-2</v>
       </c>
     </row>
-    <row r="16" spans="3:27">
+    <row r="16" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>72</v>
       </c>
@@ -4269,7 +4276,7 @@
         <v>1.48015682240322E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:11">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>78</v>
       </c>
@@ -4298,7 +4305,7 @@
         <v>1.3149109381296001E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:11">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>84</v>
       </c>
@@ -4327,7 +4334,7 @@
         <v>1.3126176941153899E-2</v>
       </c>
     </row>
-    <row r="19" spans="3:11">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>90</v>
       </c>
@@ -4356,7 +4363,7 @@
         <v>1.42675069336002E-2</v>
       </c>
     </row>
-    <row r="20" spans="3:11">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>96</v>
       </c>
@@ -4385,7 +4392,7 @@
         <v>1.48209725997168E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:11">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <v>102</v>
       </c>
@@ -4414,7 +4421,7 @@
         <v>1.35720365328289E-2</v>
       </c>
     </row>
-    <row r="22" spans="3:11">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <v>108</v>
       </c>
@@ -4443,7 +4450,7 @@
         <v>1.6656008960705598E-2</v>
       </c>
     </row>
-    <row r="23" spans="3:11">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <v>114</v>
       </c>
@@ -4472,7 +4479,7 @@
         <v>1.6031981933995802E-2</v>
       </c>
     </row>
-    <row r="24" spans="3:11">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <v>120</v>
       </c>
@@ -4501,7 +4508,7 @@
         <v>1.5243017732489299E-2</v>
       </c>
     </row>
-    <row r="25" spans="3:11">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
         <v>126</v>
       </c>
@@ -4530,7 +4537,7 @@
         <v>1.50891057657372E-2</v>
       </c>
     </row>
-    <row r="26" spans="3:11">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <v>132</v>
       </c>
@@ -4559,7 +4566,7 @@
         <v>1.17003964647259E-2</v>
       </c>
     </row>
-    <row r="27" spans="3:11">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
         <v>138</v>
       </c>
@@ -4588,7 +4595,7 @@
         <v>1.02874052365096E-2</v>
       </c>
     </row>
-    <row r="28" spans="3:11">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
         <v>144</v>
       </c>
@@ -4617,7 +4624,7 @@
         <v>1.0864244352148399E-2</v>
       </c>
     </row>
-    <row r="29" spans="3:11">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <v>150</v>
       </c>
@@ -4646,7 +4653,7 @@
         <v>1.31270589572683E-2</v>
       </c>
     </row>
-    <row r="30" spans="3:11">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
         <v>156</v>
       </c>
@@ -4675,7 +4682,7 @@
         <v>1.2264887344179401E-2</v>
       </c>
     </row>
-    <row r="31" spans="3:11">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
         <v>162</v>
       </c>
@@ -4704,7 +4711,7 @@
         <v>1.11495768522445E-2</v>
       </c>
     </row>
-    <row r="32" spans="3:11">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
         <v>168</v>
       </c>
@@ -4733,7 +4740,7 @@
         <v>1.01881783244157E-2</v>
       </c>
     </row>
-    <row r="33" spans="3:11">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
         <v>174</v>
       </c>
@@ -4762,7 +4769,7 @@
         <v>4.9820730032253497E-3</v>
       </c>
     </row>
-    <row r="34" spans="3:11">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
         <v>180</v>
       </c>
@@ -4791,7 +4798,7 @@
         <v>4.0630112938692797E-3</v>
       </c>
     </row>
-    <row r="35" spans="3:11">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <v>186</v>
       </c>
@@ -4820,7 +4827,7 @@
         <v>1.4368056871188601E-3</v>
       </c>
     </row>
-    <row r="36" spans="3:11">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <v>192</v>
       </c>
@@ -4849,7 +4856,7 @@
         <v>3.9532001778187498E-3</v>
       </c>
     </row>
-    <row r="37" spans="3:11">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <v>198</v>
       </c>
@@ -4878,7 +4885,7 @@
         <v>3.8433890617682299E-3</v>
       </c>
     </row>
-    <row r="38" spans="3:11">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" s="1">
         <v>204</v>
       </c>
@@ -4907,7 +4914,7 @@
         <v>3.2321512832701499E-3</v>
       </c>
     </row>
-    <row r="39" spans="3:11">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C39" s="1">
         <v>210</v>
       </c>
@@ -4936,7 +4943,7 @@
         <v>3.5029305002797799E-3</v>
       </c>
     </row>
-    <row r="40" spans="3:11">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C40" s="1">
         <v>216</v>
       </c>
@@ -4965,7 +4972,7 @@
         <v>2.8105471598778801E-3</v>
       </c>
     </row>
-    <row r="41" spans="3:11">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C41" s="1">
         <v>222</v>
       </c>
@@ -4994,7 +5001,7 @@
         <v>1.5682262196691399E-3</v>
       </c>
     </row>
-    <row r="42" spans="3:11">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C42" s="1">
         <v>228</v>
       </c>
@@ -5023,7 +5030,7 @@
         <v>3.2775751594662401E-3</v>
       </c>
     </row>
-    <row r="43" spans="3:11">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C43" s="1">
         <v>234</v>
       </c>
@@ -5052,7 +5059,7 @@
         <v>2.4647964964110902E-3</v>
       </c>
     </row>
-    <row r="44" spans="3:11">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C44" s="1">
         <v>240</v>
       </c>
@@ -5081,7 +5088,7 @@
         <v>2.4308388421382899E-3</v>
       </c>
     </row>
-    <row r="45" spans="3:11">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C45" s="1">
         <v>246</v>
       </c>
@@ -5110,7 +5117,7 @@
         <v>7.4795041302669004E-4</v>
       </c>
     </row>
-    <row r="46" spans="3:11">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C46" s="1">
         <v>252</v>
       </c>
@@ -5139,7 +5146,7 @@
         <v>2.3646875674090601E-3</v>
       </c>
     </row>
-    <row r="47" spans="3:11">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C47" s="1">
         <v>258</v>
       </c>
@@ -5168,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:11">
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C48" s="1">
         <v>264</v>
       </c>
@@ -5197,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:11">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C49" s="1">
         <v>270</v>
       </c>
@@ -5226,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:11">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C50" s="1">
         <v>276</v>
       </c>
@@ -5255,7 +5262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:11">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C51" s="1">
         <v>282</v>
       </c>
@@ -5284,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:11">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C52" s="1">
         <v>288</v>
       </c>
@@ -5313,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:11">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C53" s="1">
         <v>294</v>
       </c>
@@ -5349,14 +5356,1490 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C73573-BB5D-4BFD-BC6B-340FD2BA8281}">
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2.2387796409980201E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.41600596248640498</v>
+      </c>
+      <c r="D2" s="2">
+        <v>7.1476893362250798E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.65959700637613705</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.647875441590817</v>
+      </c>
+      <c r="G2" s="2">
+        <v>7.9425630533715001E-4</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3.2528786818032899E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3.32401335432616E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.58741229429490105</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.101613209068756</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.87959982872291897</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.90528636870027901</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5.2299197800928796E-3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>9.5778225646780592E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4.8985018936994397E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.70052083097462703</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9.14845668995352E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.95768920358648502</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.29718239650217E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.7702963133656199E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4.4225214224797499E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.63702575034182296</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8.9595727510586795E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.94276503491087105</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.83963740282689703</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3.88087478499681E-3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.88994191901409E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3.7330487355198803E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.53774724025369003</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9.6965420506280806E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.86466507610795296</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.68596181733551798</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2.1238969273946599E-3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2.1249994484637501E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4.32016334828468E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.46323003449010802</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7.0198409717163804E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.70322862306534195</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.53986893231490896</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2.1934880684098101E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4.6757044004113998E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.36727937435294999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5.9669772831259599E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.58648794057088705</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.43334553461843101</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2.0330491765901199E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4.0582043003569303E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.30977142517984102</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6.1543176931591399E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.52035342407638696</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.32125087656425699</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3.3679818998321501E-3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2.3605861883758499E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4.5333468571941003E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.25482000235897001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5.7011373595320797E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.46291030315251303</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.20758799220230001</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.5470137108177601E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2.1585601953527801E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>60</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4.2872200134695303E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.20105445129272301</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4.6173148743683799E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.381938937929647</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.13505135541888699</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2.7081008848652E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1.96597178401468E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>66</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3.6505360463896401E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.17368899196273599</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3.4195357950351703E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.33884755647432702</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.12005309742141899</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2.63890665149842E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1.4216790955425799E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>72</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.7457497802678902E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.150960296000409</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3.3289526477419097E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.29069913074661002</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.10844310768911999</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2.4597248985936501E-2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1.48015682240322E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>78</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3.6607674417837202E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.136777021681144</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3.3869011644047098E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.26757440922346598</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.12246717793171701</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.9297208854630599E-2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1.3149109381296001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>84</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3.8427716507527798E-2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.13573183154042201</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3.4621813150465801E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.27411412424319698</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.132345768282462</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.21180315142805E-2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1.3126176941153899E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>90</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3.6320136894654499E-2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.13333495036155299</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3.3210144947743998E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.28344674608199699</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.119313526169946</v>
+      </c>
+      <c r="G16" s="2">
+        <v>8.6702270753930295E-3</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1.42675069336002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>96</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3.4500094804964E-2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.118257751825267</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3.3699664380740298E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.26106732874439897</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.10791389749128701</v>
+      </c>
+      <c r="G17" s="2">
+        <v>7.2118119709806E-3</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1.48209725997168E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>102</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2.6982222953876499E-2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.118252900714147</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2.9673697800719399E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.27315801764270697</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.102895661790327</v>
+      </c>
+      <c r="G18" s="2">
+        <v>7.8151115965111699E-3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4.3055659687584701E-3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1.35720365328289E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>108</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.9662363891136E-2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.122421754047583</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2.5770772599633E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.30562241722882399</v>
+      </c>
+      <c r="F19" s="2">
+        <v>9.8278743831545501E-2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1.4934752792251101E-2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>4.4784412991688404E-3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1.6656008960705598E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>114</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1.8682884018409202E-2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.106483706931641</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2.7345172930250499E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.27406649532539201</v>
+      </c>
+      <c r="F20" s="2">
+        <v>8.0438186027930098E-2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.51874506617167E-2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2.6694244386914899E-3</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1.6031981933995802E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>120</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2.5208486764434601E-2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8.5978134791074204E-2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2.7342526879261399E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.253937103336764</v>
+      </c>
+      <c r="F21" s="2">
+        <v>7.5404956055672503E-2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2.0774146315967201E-2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1.5243017732489299E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>126</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3.0374460321991401E-2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>8.8722089666842599E-2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2.54435442957365E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.27380674123175403</v>
+      </c>
+      <c r="F22" s="2">
+        <v>8.6664344005445204E-2</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.6840791520567201E-2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1.50891057657372E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>132</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3.3028449464128098E-2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>8.5237240514106805E-2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.9892570327193701E-2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.233472103995672</v>
+      </c>
+      <c r="F23" s="2">
+        <v>7.5940781380979205E-2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1.43856972119985E-2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1.17003964647259E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>138</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2.2049983902127E-2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>7.0935334917647405E-2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.7808364166488799E-2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.20249654908182099</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5.6245782851274698E-2</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.07090093625479E-2</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1.02874052365096E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>144</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1.8854877332705199E-2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8.2363629139868999E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.50723474436879E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.189289667604019</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5.5564424721563602E-2</v>
+      </c>
+      <c r="G25" s="2">
+        <v>7.5699108706328098E-3</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1.0864244352148399E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>150</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1.7695024980688701E-2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>8.7796853828809598E-2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.18701847374129E-2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.20464690652783901</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5.2652445607982899E-2</v>
+      </c>
+      <c r="G26" s="2">
+        <v>6.9666112451022399E-3</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1.31270589572683E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>156</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2.5599661304097399E-2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>7.6442649034284701E-2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>9.1429881836938894E-3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.19398861314346499</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4.0720960680500698E-2</v>
+      </c>
+      <c r="G27" s="2">
+        <v>8.3866586101717204E-3</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1.2264887344179401E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>162</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2.5187318356521202E-2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6.2659369431702402E-2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>9.1160866670680404E-3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.165400678256482</v>
+      </c>
+      <c r="F28" s="2">
+        <v>3.1160337465774599E-2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>6.7606602773272496E-3</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1.11495768522445E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>168</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2.3350958970037802E-2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>7.16740241609439E-2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>8.8550096352546601E-3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.16279740510045801</v>
+      </c>
+      <c r="F29" s="2">
+        <v>3.3507384693167698E-2</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1.1007131105563599E-2</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1.01881783244157E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>174</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1.3648331002134599E-2</v>
+      </c>
+      <c r="C30" s="2">
+        <v>7.3794834028762996E-2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.3961447034971E-2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.19178004257568501</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3.3346416573686199E-2</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1.34639894490072E-2</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1.35786516603019E-3</v>
+      </c>
+      <c r="I30" s="2">
+        <v>4.9820730032253497E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>180</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1.34203296076859E-2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>8.20416929273666E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.4724832745346301E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.19250020946205801</v>
+      </c>
+      <c r="F31" s="2">
+        <v>4.2389295829171898E-2</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1.48540482370814E-2</v>
+      </c>
+      <c r="H31" s="2">
+        <v>5.7331105647349197E-6</v>
+      </c>
+      <c r="I31" s="2">
+        <v>4.0630112938692797E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>186</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1.0054111742728499E-2</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8.4180143143933697E-2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.45184407681911E-2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.14853739530250601</v>
+      </c>
+      <c r="F32" s="2">
+        <v>5.0919282210077098E-2</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1.6967360958667198E-2</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1.4368056871188601E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>192</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1.44403822640106E-2</v>
+      </c>
+      <c r="C33" s="2">
+        <v>8.2703646691977301E-2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.47032233306988E-2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.139999911785952</v>
+      </c>
+      <c r="F33" s="2">
+        <v>5.1960503274315201E-2</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1.8326108141605499E-2</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>3.9532001778187498E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>198</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1.8483548175461099E-2</v>
+      </c>
+      <c r="C34" s="2">
+        <v>7.0320128062665493E-2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.33127235358904E-2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.14725185553908901</v>
+      </c>
+      <c r="F34" s="2">
+        <v>4.8936949001870997E-2</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1.7876720482826999E-2</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>3.8433890617682299E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>204</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1.9364683154854401E-2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4.7894404912138401E-2</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1.1948243241593401E-2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.13013190563916399</v>
+      </c>
+      <c r="F35" s="2">
+        <v>4.5492231631291097E-2</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1.29705009395271E-2</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>3.2321512832701499E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>210</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1.72010954644745E-2</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4.5319797299676799E-2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1.1599846527137501E-2</v>
+      </c>
+      <c r="E36" s="2">
+        <v>9.4311431364144105E-2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3.67893699279137E-2</v>
+      </c>
+      <c r="G36" s="2">
+        <v>9.6197183711245506E-3</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>3.5029305002797799E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>216</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1.6520619350877799E-2</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4.7223630986383998E-2</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1.01079147786263E-2</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.111030063548352</v>
+      </c>
+      <c r="F37" s="2">
+        <v>3.2681816784546902E-2</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1.1200733837153099E-2</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2.8105471598778801E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>222</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1.4539168169370301E-2</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4.6746018782839002E-2</v>
+      </c>
+      <c r="D38" s="2">
+        <v>9.0944772497744703E-3</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.1300692824236</v>
+      </c>
+      <c r="F38" s="2">
+        <v>3.5532495708058297E-2</v>
+      </c>
+      <c r="G38" s="2">
+        <v>7.9328608655292003E-3</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1.5682262196691399E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>228</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1.3713159251369299E-2</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5.3756730878642703E-2</v>
+      </c>
+      <c r="D39" s="2">
+        <v>8.7628388600139492E-3</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.13704162678006099</v>
+      </c>
+      <c r="F39" s="2">
+        <v>4.3814635304157898E-2</v>
+      </c>
+      <c r="G39" s="2">
+        <v>8.4492818177974004E-3</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>3.2775751594662401E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>234</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1.28465775524164E-2</v>
+      </c>
+      <c r="C40" s="2">
+        <v>5.4120562889653501E-2</v>
+      </c>
+      <c r="D40" s="2">
+        <v>7.06539715046192E-3</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.114422741907324</v>
+      </c>
+      <c r="F40" s="2">
+        <v>3.6518149701523797E-2</v>
+      </c>
+      <c r="G40" s="2">
+        <v>6.5256027486714097E-3</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2.4647964964110902E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>240</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1.2477012430047099E-2</v>
+      </c>
+      <c r="C41" s="2">
+        <v>5.7776523348509003E-2</v>
+      </c>
+      <c r="D41" s="2">
+        <v>6.4435751680071603E-3</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.108385335584677</v>
+      </c>
+      <c r="F41" s="2">
+        <v>3.4600644742552401E-2</v>
+      </c>
+      <c r="G41" s="2">
+        <v>7.7926201631032298E-3</v>
+      </c>
+      <c r="H41" s="2">
+        <v>6.0506365961155405E-4</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2.4308388421382899E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>246</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1.22953169305548E-2</v>
+      </c>
+      <c r="C42" s="2">
+        <v>5.5435209240412703E-2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>8.1807076423967302E-3</v>
+      </c>
+      <c r="E42" s="2">
+        <v>8.2192517833749298E-2</v>
+      </c>
+      <c r="F42" s="2">
+        <v>3.1965177957339899E-2</v>
+      </c>
+      <c r="G42" s="2">
+        <v>5.2316838149676801E-3</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>7.4795041302669004E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>252</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1.2003369302985799E-2</v>
+      </c>
+      <c r="C43" s="2">
+        <v>4.9207728237402999E-2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>5.9769881751529702E-3</v>
+      </c>
+      <c r="E43" s="2">
+        <v>5.77072850054723E-2</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1.9998412366760501E-2</v>
+      </c>
+      <c r="G43" s="2">
+        <v>6.1573606517966797E-3</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>2.3646875674090601E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>258</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1.43402733358024E-2</v>
+      </c>
+      <c r="C44" s="2">
+        <v>5.0547953063417202E-2</v>
+      </c>
+      <c r="D44" s="2">
+        <v>5.8777612630591201E-3</v>
+      </c>
+      <c r="E44" s="2">
+        <v>5.6785577253065198E-2</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1.5464403996819099E-2</v>
+      </c>
+      <c r="G44" s="2">
+        <v>6.6168915077977498E-3</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>264</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2.1456386461792699E-2</v>
+      </c>
+      <c r="C45" s="2">
+        <v>5.7715664175758102E-2</v>
+      </c>
+      <c r="D45" s="2">
+        <v>7.9377119581273293E-3</v>
+      </c>
+      <c r="E45" s="2">
+        <v>8.03261698782088E-2</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1.49951709556217E-2</v>
+      </c>
+      <c r="G45" s="2">
+        <v>7.7105925824389899E-3</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>270</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2.0864994065713401E-2</v>
+      </c>
+      <c r="C46" s="2">
+        <v>5.0830639501939903E-2</v>
+      </c>
+      <c r="D46" s="2">
+        <v>8.6803702699694892E-3</v>
+      </c>
+      <c r="E46" s="2">
+        <v>9.0940362403942598E-2</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1.53603259921271E-2</v>
+      </c>
+      <c r="G46" s="2">
+        <v>6.9661702383680803E-3</v>
+      </c>
+      <c r="H46" s="2">
+        <v>3.4134057760282399E-3</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>276</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2.0436774814848201E-2</v>
+      </c>
+      <c r="C47" s="2">
+        <v>4.4565672767763499E-2</v>
+      </c>
+      <c r="D47" s="2">
+        <v>7.6378261802368397E-3</v>
+      </c>
+      <c r="E47" s="2">
+        <v>8.9100915975612205E-2</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1.49294606902727E-2</v>
+      </c>
+      <c r="G47" s="2">
+        <v>6.0008026340554899E-3</v>
+      </c>
+      <c r="H47" s="2">
+        <v>6.1375152693779102E-3</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>282</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1.44888932005761E-2</v>
+      </c>
+      <c r="C48" s="2">
+        <v>4.43151799584292E-2</v>
+      </c>
+      <c r="D48" s="2">
+        <v>7.68457308192751E-3</v>
+      </c>
+      <c r="E48" s="2">
+        <v>8.4857091179842595E-2</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1.55517236794616E-2</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1.1091363730482799E-3</v>
+      </c>
+      <c r="H48" s="2">
+        <v>3.3842992151473798E-3</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>288</v>
+      </c>
+      <c r="B49" s="2">
+        <v>7.3710160397109604E-3</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3.9265191645599801E-2</v>
+      </c>
+      <c r="D49" s="2">
+        <v>6.09870652065475E-3</v>
+      </c>
+      <c r="E49" s="2">
+        <v>3.9794842834291501E-2</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1.53338654822354E-2</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1.54397075218022E-3</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>294</v>
+      </c>
+      <c r="B50" s="2">
+        <v>7.2413595412416697E-3</v>
+      </c>
+      <c r="C50" s="2">
+        <v>3.4990496272597003E-2</v>
+      </c>
+      <c r="D50" s="2">
+        <v>5.5447998478040201E-3</v>
+      </c>
+      <c r="E50" s="2">
+        <v>2.7978902142156498E-2</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1.3845902810207899E-2</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C3:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N24" sqref="N23:N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -5370,7 +6853,7 @@
     <col min="21" max="21" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:21">
+    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5423,7 +6906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:21">
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>6</v>
       </c>
@@ -5479,7 +6962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:21">
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>18</v>
       </c>
@@ -5535,7 +7018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:21">
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>30</v>
       </c>
@@ -5591,7 +7074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:21">
+    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>42</v>
       </c>
@@ -5647,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:21">
+    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>54</v>
       </c>
@@ -5703,7 +7186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:21">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>66</v>
       </c>
@@ -5759,7 +7242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:21">
+    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>78</v>
       </c>
@@ -5815,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:21">
+    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>90</v>
       </c>
@@ -5871,7 +7354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:21">
+    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>102</v>
       </c>
@@ -5900,7 +7383,7 @@
         <v>1.35720365328289E-2</v>
       </c>
     </row>
-    <row r="13" spans="3:21">
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>114</v>
       </c>
@@ -5929,7 +7412,7 @@
         <v>1.6031981933995802E-2</v>
       </c>
     </row>
-    <row r="14" spans="3:21">
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>126</v>
       </c>
@@ -5958,7 +7441,7 @@
         <v>1.50891057657372E-2</v>
       </c>
     </row>
-    <row r="15" spans="3:21">
+    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>138</v>
       </c>
@@ -5987,7 +7470,7 @@
         <v>1.02874052365096E-2</v>
       </c>
     </row>
-    <row r="16" spans="3:21">
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>150</v>
       </c>
@@ -6016,7 +7499,7 @@
         <v>1.31270589572683E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:11">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>162</v>
       </c>
@@ -6045,7 +7528,7 @@
         <v>1.11495768522445E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:11">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>174</v>
       </c>
@@ -6074,7 +7557,7 @@
         <v>4.9820730032253497E-3</v>
       </c>
     </row>
-    <row r="19" spans="3:11">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>186</v>
       </c>
@@ -6103,7 +7586,7 @@
         <v>1.4368056871188601E-3</v>
       </c>
     </row>
-    <row r="20" spans="3:11">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>198</v>
       </c>
@@ -6132,7 +7615,7 @@
         <v>3.8433890617682299E-3</v>
       </c>
     </row>
-    <row r="21" spans="3:11">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <v>210</v>
       </c>
@@ -6161,7 +7644,7 @@
         <v>3.5029305002797799E-3</v>
       </c>
     </row>
-    <row r="22" spans="3:11">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <v>222</v>
       </c>
@@ -6190,7 +7673,7 @@
         <v>1.5682262196691399E-3</v>
       </c>
     </row>
-    <row r="23" spans="3:11">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <v>234</v>
       </c>
@@ -6219,7 +7702,7 @@
         <v>2.4647964964110902E-3</v>
       </c>
     </row>
-    <row r="24" spans="3:11">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <v>246</v>
       </c>
@@ -6248,7 +7731,7 @@
         <v>7.4795041302669004E-4</v>
       </c>
     </row>
-    <row r="25" spans="3:11">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
         <v>258</v>
       </c>
@@ -6277,7 +7760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:11">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <v>270</v>
       </c>
@@ -6306,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:11">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
         <v>282</v>
       </c>
@@ -6335,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:11">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
         <v>294</v>
       </c>
